--- a/Hostel Mangement/TrnHostelRegistration.xlsx
+++ b/Hostel Mangement/TrnHostelRegistration.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
-  <si>
-    <t>Table Name - TrnVehicleMaintenanceRequest</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -149,13 +146,73 @@
   </si>
   <si>
     <t>OISTypeId</t>
+  </si>
+  <si>
+    <t>Primary id for auto increatment.</t>
+  </si>
+  <si>
+    <t>For active or inactive record.</t>
+  </si>
+  <si>
+    <t>Get Login UserId .</t>
+  </si>
+  <si>
+    <t>Get Current Datetime when user Insert Record.</t>
+  </si>
+  <si>
+    <t>Keep IP Address of User System.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OISCode  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get OISTypeId  (MstOIS) in Numaric </t>
+  </si>
+  <si>
+    <t>For IsMessFacility have or Not .</t>
+  </si>
+  <si>
+    <t>Take NoOfRoom as Numric</t>
+  </si>
+  <si>
+    <t>Take HostelPhoneNo as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeMobileNo as String.</t>
+  </si>
+  <si>
+    <t>Take InchargeName  as String.</t>
+  </si>
+  <si>
+    <t>Take HostelAddress as String.</t>
+  </si>
+  <si>
+    <t>Take HostelParentName as String.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get CastCategoryId  (MstCaste) in Numaric </t>
+  </si>
+  <si>
+    <t>Take HostelNameEng as String.</t>
+  </si>
+  <si>
+    <t>Take HostelNameHin as String.</t>
+  </si>
+  <si>
+    <t>Table Name - TrnHostelRegistration</t>
+  </si>
+  <si>
+    <t>Take CapacityOfStudents as Numric</t>
+  </si>
+  <si>
+    <t>Take School ID as Numric.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,13 +227,25 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -206,14 +275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -223,6 +286,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +603,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,394 +612,432 @@
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>3</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>4</v>
-      </c>
-      <c r="B8" s="7" t="s">
+      <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="B21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="B22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="B23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="B24" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="B25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>15</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>17</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>20</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>21</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Hostel Mangement/TrnHostelRegistration.xlsx
+++ b/Hostel Mangement/TrnHostelRegistration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Take School ID as Numric.</t>
+  </si>
+  <si>
+    <t>Take SchooltypeId as Int.</t>
+  </si>
+  <si>
+    <t>Take HostelParentTypeId as Int.</t>
   </si>
 </sst>
 </file>
@@ -286,16 +292,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +609,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,32 +622,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -679,7 +685,7 @@
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -697,7 +703,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -715,7 +721,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -733,13 +739,15 @@
         <v>13</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="F8" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -749,7 +757,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -767,7 +775,7 @@
         <v>13</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -785,7 +793,9 @@
         <v>13</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -801,7 +811,7 @@
         <v>13</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -819,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -837,7 +847,7 @@
         <v>13</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -855,7 +865,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -873,7 +883,7 @@
         <v>13</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -891,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -909,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -927,7 +937,7 @@
         <v>13</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -945,7 +955,7 @@
         <v>13</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -963,7 +973,7 @@
         <v>13</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="6" t="s">
         <v>46</v>
       </c>
     </row>
@@ -981,7 +991,7 @@
         <v>13</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -999,7 +1009,7 @@
         <v>13</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1007,7 +1017,7 @@
       <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -1017,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1025,7 +1035,7 @@
       <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -1035,7 +1045,7 @@
         <v>13</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>50</v>
       </c>
     </row>

--- a/Hostel Mangement/TrnHostelRegistration.xlsx
+++ b/Hostel Mangement/TrnHostelRegistration.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t xml:space="preserve">Defination : </t>
   </si>
@@ -212,13 +212,16 @@
   </si>
   <si>
     <t>Take HostelParentTypeId as Int.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +242,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -254,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -277,11 +288,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -301,6 +349,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -606,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="A26" sqref="A26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,10 +1106,21 @@
         <v>50</v>
       </c>
     </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F3"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Hostel Mangement/TrnHostelRegistration.xlsx
+++ b/Hostel Mangement/TrnHostelRegistration.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
-    <t xml:space="preserve">Defination : </t>
-  </si>
-  <si>
     <t>S.No.</t>
   </si>
   <si>
@@ -215,6 +212,10 @@
   </si>
   <si>
     <t xml:space="preserve">Note: The Green-colored column is donated as dependent table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defination : नाये Hostel को रजिस्टर्ड किया जाता है|
+</t>
   </si>
 </sst>
 </file>
@@ -666,7 +667,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:F26"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +681,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -690,7 +691,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -708,22 +709,22 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -731,19 +732,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -751,17 +752,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -769,17 +770,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -787,17 +788,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,17 +806,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -823,17 +824,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -841,17 +842,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -859,17 +860,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,17 +878,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,17 +896,17 @@
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,17 +914,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,17 +932,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -949,17 +950,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -967,17 +968,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,17 +986,17 @@
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="D19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,17 +1004,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1021,17 +1022,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1039,17 +1040,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1057,17 +1058,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="D23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1075,17 +1076,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="D24" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,22 +1094,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
